--- a/RL_TestData.xlsx
+++ b/RL_TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T95UK5O\git\FASTWebAutomation\inputFiles\NYLRL_Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275C2479-B9BF-4727-A551-B32333237E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8449ED7-ED45-4919-BF32-44160CC3E01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyData_New" sheetId="5" r:id="rId1"/>
-    <sheet name="PolicyData" sheetId="4" r:id="rId2"/>
-    <sheet name="AddPayment" sheetId="1" r:id="rId3"/>
-    <sheet name="PremiumRefund" sheetId="2" r:id="rId4"/>
-    <sheet name="NotSufficientFunds" sheetId="3" r:id="rId5"/>
+    <sheet name="TC_Mapping" sheetId="6" r:id="rId2"/>
+    <sheet name="PolicyData" sheetId="4" r:id="rId3"/>
+    <sheet name="AddPayment" sheetId="1" r:id="rId4"/>
+    <sheet name="PremiumRefund" sheetId="2" r:id="rId5"/>
+    <sheet name="NotSufficientFunds" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="312">
   <si>
     <t>TC_Number</t>
   </si>
@@ -840,19 +841,139 @@
     <t>CWL_E2E_02A_AT1</t>
   </si>
   <si>
-    <t>FirstName#Party_PrimaryInsured</t>
-  </si>
-  <si>
-    <t>Gender#Party_Beneficiary_1</t>
-  </si>
-  <si>
-    <t>FirstName#Party_Beneficiary_1</t>
-  </si>
-  <si>
-    <t>OriginatingObjectType#Relation_Payor</t>
-  </si>
-  <si>
-    <t>TobaccoPremiumBasis#ADB</t>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>Field_Value</t>
+  </si>
+  <si>
+    <t>TransType</t>
+  </si>
+  <si>
+    <t>TransMode</t>
+  </si>
+  <si>
+    <t>TestIndicator</t>
+  </si>
+  <si>
+    <t>GovtIDTC</t>
+  </si>
+  <si>
+    <t>New Business Submission</t>
+  </si>
+  <si>
+    <t>Original Request</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>TypeCode</t>
+  </si>
+  <si>
+    <t>11_CWL_Auto_Test1</t>
+  </si>
+  <si>
+    <t>11_CWL_Auto_Test2</t>
+  </si>
+  <si>
+    <t>ProductCode#WOP</t>
+  </si>
+  <si>
+    <t>LifeCovTypeCode#WOP</t>
+  </si>
+  <si>
+    <t>BenefitCoverage#WOP</t>
+  </si>
+  <si>
+    <t>LifeParticipant#WOP</t>
+  </si>
+  <si>
+    <t>LifeParticipantRoleCode#WOP</t>
+  </si>
+  <si>
+    <t>TobaccoPremiumBasis#WOP</t>
+  </si>
+  <si>
+    <t>UnderwritingClass#WOP</t>
+  </si>
+  <si>
+    <t>PermTableRating#WOP</t>
+  </si>
+  <si>
+    <t>TempFlatExtraAmt#WOP</t>
+  </si>
+  <si>
+    <t>TempFlatExtraDuration#WOP</t>
+  </si>
+  <si>
+    <t>PermFlatExtraAmt#WOP</t>
+  </si>
+  <si>
+    <t>ExtraRatingFactor#WOP</t>
+  </si>
+  <si>
+    <t>RiderInsured#WOP</t>
+  </si>
+  <si>
+    <t>OptionNumberOfUnits#WOP</t>
+  </si>
+  <si>
+    <t>LevelPremiumPeriod#WOP</t>
+  </si>
+  <si>
+    <t>EffDate#WOP</t>
+  </si>
+  <si>
+    <t>ExpiryDate#WOP</t>
+  </si>
+  <si>
+    <t>WOP</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Base Coverage</t>
+  </si>
+  <si>
+    <t>Primary InsuredNon-SmokerNS1_01STD0001</t>
+  </si>
+  <si>
+    <t>Primary Insured</t>
+  </si>
+  <si>
+    <t>Non-Smoker</t>
+  </si>
+  <si>
+    <t>NS1_01</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2035-04-22</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,6 +1409,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -1532,7 +1659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1562,6 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1980,54 +2108,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C29EC9A-FBFE-45D9-AB6C-C938C8C40764}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.7265625" customWidth="1"/>
-    <col min="8" max="8" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>271</v>
+      <c r="D1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T1" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -2035,22 +2192,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R2" t="s">
+        <v>309</v>
+      </c>
+      <c r="S2" t="s">
+        <v>310</v>
+      </c>
+      <c r="T2" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>201</v>
       </c>
@@ -2058,319 +2254,169 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>256</v>
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S3" t="s">
+        <v>310</v>
+      </c>
+      <c r="T3" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E7225B-58CF-454A-8BE8-708F00B09853}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F63F4A-3044-4578-825A-70B87CC1F756}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2380,7 +2426,7 @@
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -3026,7 +3072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
@@ -3103,91 +3149,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="35" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="33" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="25" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="28" t="s">
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="25" t="s">
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="28"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6402,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E099B3B-7915-436F-A938-2295CD06E2F4}">
   <dimension ref="A1:X9"/>
   <sheetViews>
@@ -6437,42 +6483,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -6913,7 +6959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C3B3A7-84EC-4862-87FF-A37E9BE7AFB8}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -6939,26 +6985,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="37" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="21" t="s">
         <v>160</v>
       </c>
